--- a/dokumenty/Book2.xlsx
+++ b/dokumenty/Book2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cigla\Documents\skola\SRL\nonlinmodel\dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48723972-6F36-4523-98AD-6A89E5007F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0BDE15-0931-4373-8971-E85C4558F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B19FCB2-976D-4B1C-8DD6-AFE2928B7715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B19FCB2-976D-4B1C-8DD6-AFE2928B7715}"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="pitch dmper" sheetId="2" r:id="rId2"/>
-    <sheet name="roll damper" sheetId="3" r:id="rId3"/>
-    <sheet name="yaw damper" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId2"/>
+    <sheet name="pitch dmper" sheetId="2" r:id="rId3"/>
+    <sheet name="roll damper" sheetId="3" r:id="rId4"/>
+    <sheet name="yaw damper" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Speed</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">highpass + K = 0.05 </t>
+  </si>
+  <si>
+    <t>gains</t>
   </si>
 </sst>
 </file>
@@ -119,23 +123,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21535</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28292</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>41949</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9346794B-5120-96EF-6D7E-A03C85B64513}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1B7B40-F0A3-68B7-AA1D-ECA5041FF3E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -151,140 +155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1448762" y="89647"/>
-          <a:ext cx="2865780" cy="2196353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2402</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>92050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236790</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF1D04F-0F5B-7835-744F-0B29E2D422F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4288652" y="92050"/>
-          <a:ext cx="2683674" cy="2044271"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>313511</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CE3FB-137A-419D-AB72-A2AE97032A0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4288971" y="2313215"/>
-          <a:ext cx="2730140" cy="2122713"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>492816</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85194</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547438</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133706</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E51D70-5426-21F8-78DD-662446A90A08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1712016" y="2371194"/>
-          <a:ext cx="2493022" cy="2144012"/>
+          <a:off x="21535" y="5383"/>
+          <a:ext cx="9827023" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,40 +172,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>169067</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500016</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
+      <xdr:rowOff>96216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304189</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9346794B-5120-96EF-6D7E-A03C85B64513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943671" y="96216"/>
+          <a:ext cx="2858742" cy="2196353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278299</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512687</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2455BFEE-5F98-382F-689F-398DEA58FD70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="169067" y="40481"/>
-          <a:ext cx="2843214" cy="2055419"/>
+      <xdr:rowOff>47390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF1D04F-0F5B-7835-744F-0B29E2D422F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5776523" y="98619"/>
+          <a:ext cx="2678043" cy="2044271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297668</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589408</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CE3FB-137A-419D-AB72-A2AE97032A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5795892" y="2319784"/>
+          <a:ext cx="2735395" cy="2122713"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,110 +305,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>192818</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>157799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>494200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D35C4E-35CC-4875-A55E-C6E17E6A263F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3250844" y="0"/>
-          <a:ext cx="2747803" cy="2122713"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107766</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438338</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>183839</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6563D895-5391-CF33-A900-6FE4E18B5953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="107766" y="2701753"/>
-          <a:ext cx="2762487" cy="2054086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>549335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>8613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>316843</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175301</xdr:rowOff>
+      <xdr:colOff>212421</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB349BF2-2F47-CA75-7146-77CBA7499621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E51D70-5426-21F8-78DD-662446A90A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981250" y="2675613"/>
-          <a:ext cx="2807402" cy="2071688"/>
+          <a:off x="3212368" y="2377763"/>
+          <a:ext cx="2498277" cy="2144012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -482,6 +354,187 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>169067</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2455BFEE-5F98-382F-689F-398DEA58FD70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="169067" y="40481"/>
+          <a:ext cx="2843214" cy="2055419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>192818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D35C4E-35CC-4875-A55E-C6E17E6A263F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3250844" y="0"/>
+          <a:ext cx="2747803" cy="2122713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107766</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438338</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>183839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6563D895-5391-CF33-A900-6FE4E18B5953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107766" y="2701753"/>
+          <a:ext cx="2762487" cy="2054086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549335</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316843</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB349BF2-2F47-CA75-7146-77CBA7499621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981250" y="2675613"/>
+          <a:ext cx="2807402" cy="2071688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -746,7 +799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1243,45 +1296,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC74AF-E9D0-42BD-AE4D-D461E98F5FCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4012E821-C454-4D3B-BF99-A2F60D938992}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>73</v>
       </c>
       <c r="B2">
         <v>143</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>186</v>
       </c>
       <c r="B3">
         <v>12633</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>256</v>
       </c>
       <c r="B4">
         <v>224</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B9FFC3-5B90-4C1A-B1AD-4E2AD3DEE14A}">
   <dimension ref="A13:G14"/>
   <sheetViews>
@@ -1319,11 +1399,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7617780-531F-4F80-8DFF-A8469B121546}">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AX45" sqref="AX45"/>
     </sheetView>
   </sheetViews>
@@ -1340,11 +1420,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FAC83F-41E5-4431-992A-9F593E287F17}">
   <dimension ref="K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>

--- a/dokumenty/Book2.xlsx
+++ b/dokumenty/Book2.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cigla\Documents\skola\SRL\nonlinmodel\dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0BDE15-0931-4373-8971-E85C4558F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20859525-28D9-488C-B018-202CF406BA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B19FCB2-976D-4B1C-8DD6-AFE2928B7715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="10" xr2:uid="{6B19FCB2-976D-4B1C-8DD6-AFE2928B7715}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="1" r:id="rId2"/>
-    <sheet name="pitch dmper" sheetId="2" r:id="rId3"/>
-    <sheet name="roll damper" sheetId="3" r:id="rId4"/>
-    <sheet name="yaw damper" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId3"/>
+    <sheet name="pitch dmper" sheetId="2" r:id="rId4"/>
+    <sheet name="roll damper" sheetId="3" r:id="rId5"/>
+    <sheet name="yaw damper" sheetId="4" r:id="rId6"/>
+    <sheet name="Pitch hold" sheetId="7" r:id="rId7"/>
+    <sheet name="roll hold" sheetId="8" r:id="rId8"/>
+    <sheet name="LQR" sheetId="10" r:id="rId9"/>
+    <sheet name="ALTITUDE" sheetId="11" r:id="rId10"/>
+    <sheet name="NAV" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Speed</t>
   </si>
@@ -63,7 +69,10 @@
     <t xml:space="preserve">highpass + K = 0.05 </t>
   </si>
   <si>
-    <t>gains</t>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -168,159 +177,252 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>259658</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A34FF1-A745-18A6-C432-057753541272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="9525"/>
+          <a:ext cx="17795183" cy="5753903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454926</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>380365</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>165801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D864FEF-2DA9-2F44-941B-16A1C5A8229A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="454926" y="5885597"/>
+          <a:ext cx="28045514" cy="7401958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>500016</xdr:colOff>
+      <xdr:colOff>28857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>159054</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048C177C-7503-4840-173C-A6296929894F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2472512" y="2469930"/>
+          <a:ext cx="3184766" cy="2876563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170713</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302679</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA69609-FB59-5CCB-6C25-04D662468FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5668937" y="2417378"/>
+          <a:ext cx="3186535" cy="2495117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>96216</xdr:rowOff>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271606</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E2A2B1-5DE5-45F5-0FDD-201C3435F1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5675586" y="13138"/>
+          <a:ext cx="3148813" cy="2410810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105102</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304189</xdr:colOff>
+      <xdr:colOff>167190</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9346794B-5120-96EF-6D7E-A03C85B64513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2943671" y="96216"/>
-          <a:ext cx="2858742" cy="2196353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>278299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>98619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>512687</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF1D04F-0F5B-7835-744F-0B29E2D422F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5776523" y="98619"/>
-          <a:ext cx="2678043" cy="2044271"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297668</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>589408</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60997</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CE3FB-137A-419D-AB72-A2AE97032A0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5795892" y="2319784"/>
-          <a:ext cx="2735395" cy="2122713"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>157799</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>212421</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E51D70-5426-21F8-78DD-662446A90A08}"/>
+      <xdr:rowOff>149829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68DFF4E-5434-CD5B-250B-0E994C841C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -336,8 +438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3212368" y="2377763"/>
-          <a:ext cx="2498277" cy="2144012"/>
+          <a:off x="2548757" y="13139"/>
+          <a:ext cx="3116657" cy="2422690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,6 +1071,642 @@
         <a:xfrm>
           <a:off x="6779561" y="3922058"/>
           <a:ext cx="5381904" cy="4807323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86157</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A80BB61-3262-1B1F-DA22-39A010692436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="803597"/>
+          <a:ext cx="6858432" cy="1825304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>115185</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB4F513-56D5-25DA-2FF4-CE05A19C2F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="3086100"/>
+          <a:ext cx="6344535" cy="6058746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>191400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EECF2D9-C290-6CA2-FEC0-6089B7586643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14468475" y="3171825"/>
+          <a:ext cx="6449325" cy="6134956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600958</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>115157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA7C3B1-BB01-FF1C-6DF1-1B872AC81FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="2924175"/>
+          <a:ext cx="6325483" cy="6144482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291644</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE5C580-BB04-C7D3-1366-3B22425DD5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="381001"/>
+          <a:ext cx="9368408" cy="2734234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201968</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA73122-7131-F93D-D3DD-67FA9DB7489D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156883" y="3350559"/>
+          <a:ext cx="4280909" cy="3563471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575A3A3F-9706-32E0-6DFE-F5E1FA8E2816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4538383" y="3238500"/>
+          <a:ext cx="4839542" cy="4022911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593914</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>138655</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE944017-E12D-1456-87EB-DBF78C61007A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9670679" y="3305736"/>
+          <a:ext cx="4990800" cy="4179795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>337493</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AE4208-BBD4-1C28-3228-3F45493C0B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="161925"/>
+          <a:ext cx="6709718" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324598</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE3197B-0575-7AB7-E6A0-4E0020596059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="2190750"/>
+          <a:ext cx="5363323" cy="4791744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276963</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>143546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13ECE83E-FDE8-DC91-8501-BFC95D73B415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="2190750"/>
+          <a:ext cx="5287113" cy="4810796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>343642</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21623FFA-5681-A133-F804-004A9B64FCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="2247900"/>
+          <a:ext cx="5315692" cy="4829849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>21866</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74ACE6CD-03FC-7827-C512-64C27BB4315F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="2171700"/>
+          <a:ext cx="10813691" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>534224</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F995DC-3CDC-59F5-0AB1-55CB7C3FA8BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="180975"/>
+          <a:ext cx="5906324" cy="9916909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,58 +2048,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A4CB0A-445C-4D30-9AFB-4188D1247CA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE11DB-D236-40CF-8A53-66E952B44B96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BB6391-A740-4C07-A8FB-19C6E3C400A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4012E821-C454-4D3B-BF99-A2F60D938992}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>1980</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>73</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>251</v>
       </c>
-      <c r="B2">
-        <v>143</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B3">
+        <v>1939</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>186</v>
-      </c>
-      <c r="B3">
-        <v>12633</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="B4">
-        <v>224</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>11980</v>
       </c>
     </row>
   </sheetData>
@@ -1370,12 +2138,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B9FFC3-5B90-4C1A-B1AD-4E2AD3DEE14A}">
   <dimension ref="A13:G14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="157" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,12 +2167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7617780-531F-4F80-8DFF-A8469B121546}">
   <dimension ref="A13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AX45" sqref="AX45"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,11 +2188,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FAC83F-41E5-4431-992A-9F593E287F17}">
   <dimension ref="K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -1439,4 +2207,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DD67DF-21A9-4AEE-83B5-5294F6CBD519}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE7BF73-53B3-4B9F-BAD2-B12FD6A30C95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO54" sqref="AO54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A1FCDD-D130-4767-B859-F4294B7AC9F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>